--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +419,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="11.625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.625" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -437,6 +447,515 @@
           <t>오류 메시지</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_fail_screenshot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>driver = &lt;selenium.webdriver.chrome.webdriver.WebDriver (session="ecff9e1d20e0ad42fc5e302cc50f9148")&gt;
+    @allure.feature("UI 테스트")
+    @allure.story("검색창 실패 테스트")
+    def test_fail_screenshot(driver):
+        """
+        일부러 실패하게 만드는 테스트
+        - 올바르지 않은 요소 선택
+        - 검색창이 없는 요소를 클릭 시도하여 실패 유발
+        """
+        driver.get("https://www.kurly.com/main")
+        try:
+&gt;           driver.find_element(By.XPATH, "//input[@id='wrong_search_id']").click()
+src/tests/ui_tests/test_fail_screenshot.py:16: 
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/webdriver.py:770: in find_element
+    return self.execute(Command.FIND_ELEMENT, {"using": by, "value": value})["value"]
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/webdriver.py:384: in execute
+    self.error_handler.check_response(response)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+self = &lt;selenium.webdriver.remote.errorhandler.ErrorHandler object at 0x7ff76784ff50&gt;
+response = {'status': 404, 'value': '{"value":{"error":"no such element","message":"no such element: Unable to locate element: {\...\\n#17 0x55a720db0fc6 \\u003Cunknown&gt;\\n#18 0x7fdd7169caa4 \\u003Cunknown&gt;\\n#19 0x7fdd71729c3c \\u003Cunknown&gt;\\n"}}'}
+    def check_response(self, response: Dict[str, Any]) -&gt; None:
+        """Checks that a JSON response from the WebDriver does not have an
+        error.
+        :Args:
+         - response - The JSON response from the WebDriver server as a dictionary
+           object.
+        :Raises: If the response contains an error message.
+        """
+        status = response.get("status", None)
+        if not status or status == ErrorCode.SUCCESS:
+            return
+        value = None
+        message = response.get("message", "")
+        screen: str = response.get("screen", "")
+        stacktrace = None
+        if isinstance(status, int):
+            value_json = response.get("value", None)
+            if value_json and isinstance(value_json, str):
+                import json
+                try:
+                    value = json.loads(value_json)
+                    if len(value) == 1:
+                        value = value["value"]
+                    status = value.get("error", None)
+                    if not status:
+                        status = value.get("status", ErrorCode.UNKNOWN_ERROR)
+                        message = value.get("value") or value.get("message")
+                        if not isinstance(message, str):
+                            value = message
+                            message = message.get("message")
+                    else:
+                        message = value.get("message", None)
+                except ValueError:
+                    pass
+        exception_class: Type[WebDriverException]
+        e = ErrorCode()
+        error_codes = [item for item in dir(e) if not item.startswith("__")]
+        for error_code in error_codes:
+            error_info = getattr(ErrorCode, error_code)
+            if isinstance(error_info, list) and status in error_info:
+                exception_class = getattr(ExceptionMapping, error_code, WebDriverException)
+                break
+        else:
+            exception_class = WebDriverException
+        if not value:
+            value = response["value"]
+        if isinstance(value, str):
+            raise exception_class(value)
+        if message == "" and "message" in value:
+            message = value["message"]
+        screen = None  # type: ignore[assignment]
+        if "screen" in value:
+            screen = value["screen"]
+        stacktrace = None
+        st_value = value.get("stackTrace") or value.get("stacktrace")
+        if st_value:
+            if isinstance(st_value, str):
+                stacktrace = st_value.split("\n")
+            else:
+                stacktrace = []
+                try:
+                    for frame in st_value:
+                        line = frame.get("lineNumber", "")
+                        file = frame.get("fileName", "&lt;anonymous&gt;")
+                        if line:
+                            file = f"{file}:{line}"
+                        meth = frame.get("methodName", "&lt;anonymous&gt;")
+                        if "className" in frame:
+                            meth = f"{frame['className']}.{meth}"
+                        msg = "    at %s (%s)"
+                        msg = msg % (meth, file)
+                        stacktrace.append(msg)
+                except TypeError:
+                    pass
+        if exception_class == UnexpectedAlertPresentException:
+            alert_text = None
+            if "data" in value:
+                alert_text = value["data"].get("text")
+            elif "alert" in value:
+                alert_text = value["alert"].get("text")
+            raise exception_class(message, screen, stacktrace, alert_text)  # type: ignore[call-arg]  # mypy is not smart enough here
+&gt;       raise exception_class(message, screen, stacktrace)
+E       selenium.common.exceptions.NoSuchElementException: Message: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@id='wrong_search_id']"}
+E         (Session info: chrome=133.0.6943.141); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+E       Stacktrace:
+E       #0 0x55a720db214a &lt;unknown&gt;
+E       #1 0x55a72084fb80 &lt;unknown&gt;
+E       #2 0x55a7208a10e9 &lt;unknown&gt;
+E       #3 0x55a7208a1271 &lt;unknown&gt;
+E       #4 0x55a7208efde4 &lt;unknown&gt;
+E       #5 0x55a7208c6efd &lt;unknown&gt;
+E       #6 0x55a7208ed14a &lt;unknown&gt;
+E       #7 0x55a7208c6ca3 &lt;unknown&gt;
+E       #8 0x55a720892f08 &lt;unknown&gt;
+E       #9 0x55a720894071 &lt;unknown&gt;
+E       #10 0x55a720d7bb5b &lt;unknown&gt;
+E       #11 0x55a720d7fae2 &lt;unknown&gt;
+E       #12 0x55a720d67967 &lt;unknown&gt;
+E       #13 0x55a720d806d4 &lt;unknown&gt;
+E       #14 0x55a720d4bc7f &lt;unknown&gt;
+E       #15 0x55a720da0cd8 &lt;unknown&gt;
+E       #16 0x55a720da0ea9 &lt;unknown&gt;
+E       #17 0x55a720db0fc6 &lt;unknown&gt;
+E       #18 0x7fdd7169caa4 &lt;unknown&gt;
+E       #19 0x7fdd71729c3c &lt;unknown&gt;
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/errorhandler.py:232: NoSuchElementException
+During handling of the above exception, another exception occurred:
+driver = &lt;selenium.webdriver.chrome.webdriver.WebDriver (session="ecff9e1d20e0ad42fc5e302cc50f9148")&gt;
+    @allure.feature("UI 테스트")
+    @allure.story("검색창 실패 테스트")
+    def test_fail_screenshot(driver):
+        """
+        일부러 실패하게 만드는 테스트
+        - 올바르지 않은 요소 선택
+        - 검색창이 없는 요소를 클릭 시도하여 실패 유발
+        """
+        driver.get("https://www.kurly.com/main")
+        try:
+            driver.find_element(By.XPATH, "//input[@id='wrong_search_id']").click()
+        except Exception:
+            driver.save_screenshot("unexpected_result.png")
+&gt;           pytest.fail("📌 예상된 실패: 잘못된 XPATH로 인해 클릭할 수 없음")
+E           Failed: 📌 예상된 실패: 잘못된 XPATH로 인해 클릭할 수 없음
+src/tests/ui_tests/test_fail_screenshot.py:19: Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_add_product</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_cart</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_category</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>driver = &lt;selenium.webdriver.chrome.webdriver.WebDriver (session="b3ecff785804e9189bdc08f10642e469")&gt;
+    @allure.feature("UI 테스트")
+    @allure.story("로그인 테스트")
+    def test_login(driver):
+        try:
+            # 로그인 버튼 클릭
+            login_button = driver.find_element(By.XPATH, "//a[contains(text(),'로그인')]")
+            login_button.click()
+            time.sleep(2)
+            #아이디 패스워드 입력
+            login_username_input = driver.find_element(By.NAME, "id")
+&gt;           login_password_input = driver.find_element(By.ID, "pw")
+src/tests/ui_tests/test_ui_login.py:18: 
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/webdriver.py:770: in find_element
+    return self.execute(Command.FIND_ELEMENT, {"using": by, "value": value})["value"]
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/webdriver.py:384: in execute
+    self.error_handler.check_response(response)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ 
+self = &lt;selenium.webdriver.remote.errorhandler.ErrorHandler object at 0x7ff76f706cd0&gt;
+response = {'status': 404, 'value': '{"value":{"error":"no such element","message":"no such element: Unable to locate element: {\...\\n#17 0x55e0a736efc6 \\u003Cunknown&gt;\\n#18 0x7f530bc9caa4 \\u003Cunknown&gt;\\n#19 0x7f530bd29c3c \\u003Cunknown&gt;\\n"}}'}
+    def check_response(self, response: Dict[str, Any]) -&gt; None:
+        """Checks that a JSON response from the WebDriver does not have an
+        error.
+        :Args:
+         - response - The JSON response from the WebDriver server as a dictionary
+           object.
+        :Raises: If the response contains an error message.
+        """
+        status = response.get("status", None)
+        if not status or status == ErrorCode.SUCCESS:
+            return
+        value = None
+        message = response.get("message", "")
+        screen: str = response.get("screen", "")
+        stacktrace = None
+        if isinstance(status, int):
+            value_json = response.get("value", None)
+            if value_json and isinstance(value_json, str):
+                import json
+                try:
+                    value = json.loads(value_json)
+                    if len(value) == 1:
+                        value = value["value"]
+                    status = value.get("error", None)
+                    if not status:
+                        status = value.get("status", ErrorCode.UNKNOWN_ERROR)
+                        message = value.get("value") or value.get("message")
+                        if not isinstance(message, str):
+                            value = message
+                            message = message.get("message")
+                    else:
+                        message = value.get("message", None)
+                except ValueError:
+                    pass
+        exception_class: Type[WebDriverException]
+        e = ErrorCode()
+        error_codes = [item for item in dir(e) if not item.startswith("__")]
+        for error_code in error_codes:
+            error_info = getattr(ErrorCode, error_code)
+            if isinstance(error_info, list) and status in error_info:
+                exception_class = getattr(ExceptionMapping, error_code, WebDriverException)
+                break
+        else:
+            exception_class = WebDriverException
+        if not value:
+            value = response["value"]
+        if isinstance(value, str):
+            raise exception_class(value)
+        if message == "" and "message" in value:
+            message = value["message"]
+        screen = None  # type: ignore[assignment]
+        if "screen" in value:
+            screen = value["screen"]
+        stacktrace = None
+        st_value = value.get("stackTrace") or value.get("stacktrace")
+        if st_value:
+            if isinstance(st_value, str):
+                stacktrace = st_value.split("\n")
+            else:
+                stacktrace = []
+                try:
+                    for frame in st_value:
+                        line = frame.get("lineNumber", "")
+                        file = frame.get("fileName", "&lt;anonymous&gt;")
+                        if line:
+                            file = f"{file}:{line}"
+                        meth = frame.get("methodName", "&lt;anonymous&gt;")
+                        if "className" in frame:
+                            meth = f"{frame['className']}.{meth}"
+                        msg = "    at %s (%s)"
+                        msg = msg % (meth, file)
+                        stacktrace.append(msg)
+                except TypeError:
+                    pass
+        if exception_class == UnexpectedAlertPresentException:
+            alert_text = None
+            if "data" in value:
+                alert_text = value["data"].get("text")
+            elif "alert" in value:
+                alert_text = value["alert"].get("text")
+            raise exception_class(message, screen, stacktrace, alert_text)  # type: ignore[call-arg]  # mypy is not smart enough here
+&gt;       raise exception_class(message, screen, stacktrace)
+E       selenium.common.exceptions.NoSuchElementException: Message: no such element: Unable to locate element: {"method":"css selector","selector":"[id="pw"]"}
+E         (Session info: chrome=133.0.6943.141); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+E       Stacktrace:
+E       #0 0x55e0a737014a &lt;unknown&gt;
+E       #1 0x55e0a6e0db80 &lt;unknown&gt;
+E       #2 0x55e0a6e5f0e9 &lt;unknown&gt;
+E       #3 0x55e0a6e5f271 &lt;unknown&gt;
+E       #4 0x55e0a6eadde4 &lt;unknown&gt;
+E       #5 0x55e0a6e84efd &lt;unknown&gt;
+E       #6 0x55e0a6eab14a &lt;unknown&gt;
+E       #7 0x55e0a6e84ca3 &lt;unknown&gt;
+E       #8 0x55e0a6e50f08 &lt;unknown&gt;
+E       #9 0x55e0a6e52071 &lt;unknown&gt;
+E       #10 0x55e0a7339b5b &lt;unknown&gt;
+E       #11 0x55e0a733dae2 &lt;unknown&gt;
+E       #12 0x55e0a7325967 &lt;unknown&gt;
+E       #13 0x55e0a733e6d4 &lt;unknown&gt;
+E       #14 0x55e0a7309c7f &lt;unknown&gt;
+E       #15 0x55e0a735ecd8 &lt;unknown&gt;
+E       #16 0x55e0a735eea9 &lt;unknown&gt;
+E       #17 0x55e0a736efc6 &lt;unknown&gt;
+E       #18 0x7f530bc9caa4 &lt;unknown&gt;
+E       #19 0x7f530bd29c3c &lt;unknown&gt;
+venv/lib/python3.11/site-packages/selenium/webdriver/remote/errorhandler.py:232: NoSuchElementException
+During handling of the above exception, another exception occurred:
+driver = &lt;selenium.webdriver.chrome.webdriver.WebDriver (session="b3ecff785804e9189bdc08f10642e469")&gt;
+    @allure.feature("UI 테스트")
+    @allure.story("로그인 테스트")
+    def test_login(driver):
+        try:
+            # 로그인 버튼 클릭
+            login_button = driver.find_element(By.XPATH, "//a[contains(text(),'로그인')]")
+            login_button.click()
+            time.sleep(2)
+            #아이디 패스워드 입력
+            login_username_input = driver.find_element(By.NAME, "id")
+            login_password_input = driver.find_element(By.ID, "pw")
+            login_submit_button = driver.find_element(By.ID,"log.login")
+            time.sleep(2)
+            login_username_input.clear()
+            login_password_input.clear()
+            login_username_input.send_keys('boksoon8')
+            login_password_input.send_keys('1232133123')
+            login_submit_button.click()
+            time.sleep(3)
+        except Exception as e:
+            capture_screenshot(driver, "로그인", "screenshots_login")
+&gt;           pytest.fail(f"❌ 로그인 실패 :{str(e)}")
+E           Failed: ❌ 로그인 실패 :Message: no such element: Unable to locate element: {"method":"css selector","selector":"[id="pw"]"}
+E             (Session info: chrome=133.0.6943.141); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+E           Stacktrace:
+E           #0 0x55e0a737014a &lt;unknown&gt;
+E           #1 0x55e0a6e0db80 &lt;unknown&gt;
+E           #2 0x55e0a6e5f0e9 &lt;unknown&gt;
+E           #3 0x55e0a6e5f271 &lt;unknown&gt;
+E           #4 0x55e0a6eadde4 &lt;unknown&gt;
+E           #5 0x55e0a6e84efd &lt;unknown&gt;
+E           #6 0x55e0a6eab14a &lt;unknown&gt;
+E           #7 0x55e0a6e84ca3 &lt;unknown&gt;
+E           #8 0x55e0a6e50f08 &lt;unknown&gt;
+E           #9 0x55e0a6e52071 &lt;unknown&gt;
+E           #10 0x55e0a7339b5b &lt;unknown&gt;
+E           #11 0x55e0a733dae2 &lt;unknown&gt;
+E           #12 0x55e0a7325967 &lt;unknown&gt;
+E           #13 0x55e0a733e6d4 &lt;unknown&gt;
+E           #14 0x55e0a7309c7f &lt;unknown&gt;
+E           #15 0x55e0a735ecd8 &lt;unknown&gt;
+E           #16 0x55e0a735eea9 &lt;unknown&gt;
+E           #17 0x55e0a736efc6 &lt;unknown&gt;
+E           #18 0x7f530bc9caa4 &lt;unknown&gt;
+E           #19 0x7f530bd29c3c &lt;unknown&gt;
+src/tests/ui_tests/test_ui_login.py:31: Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_001-\uac24\ub7ed\uc2dcS25]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_002-\uc81c\ub85c\ucf5c\ub77c]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_003-\ub9e5\ubd81\ud504\ub85c]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_004-iPhone16]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_005-\ud5e4\ub4dc\uc14b]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_006-\ub178\ud2b8\ubd81]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_007-\uacfc\uc790\uc138\ud2b8]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_008-\ub9c8\uc6b0\uc2a4]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_009-\ud0a4\ubcf4\ub4dc]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test_product_search[TC_010-\ubb3c]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
